--- a/BEVs_LIB_CAPEX_employment stats.xlsx
+++ b/BEVs_LIB_CAPEX_employment stats.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="1920" windowWidth="17150" windowHeight="15780" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="19520" yWindow="1920" windowWidth="17150" windowHeight="15780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chemistries_scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Battery_size" sheetId="17" r:id="rId2"/>
     <sheet name="Material composition" sheetId="3" r:id="rId3"/>
-    <sheet name="Calculations_cells" sheetId="15" r:id="rId4"/>
+    <sheet name="Calculations_cells" sheetId="15" state="hidden" r:id="rId4"/>
     <sheet name="BEV_data" sheetId="2" r:id="rId5"/>
     <sheet name="Employment and automation" sheetId="22" r:id="rId6"/>
     <sheet name="Other_industries_mat demand" sheetId="19" r:id="rId7"/>
-    <sheet name="LIBs forecast from literature" sheetId="18" r:id="rId8"/>
-    <sheet name="CAPEX" sheetId="20" r:id="rId9"/>
-    <sheet name="Production capacity" sheetId="13" r:id="rId10"/>
+    <sheet name="CAPEX" sheetId="20" r:id="rId8"/>
+    <sheet name="Production capacity" sheetId="13" r:id="rId9"/>
+    <sheet name="LIBs forecast from literature" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="229">
   <si>
     <t>chemistry</t>
   </si>
@@ -997,6 +997,24 @@
   </si>
   <si>
     <t>Li-ion batteries - China</t>
+  </si>
+  <si>
+    <t>Scenario for market share of chemistries from 2015 until 2050</t>
+  </si>
+  <si>
+    <t>Initial battery size of BEVs and PHEVs in 2015 in each vehicle segment. Furthermore, for BEVs we defined the average battery size in each segment in 2050, based on Baars et al.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41893-020-00607-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source for battery size in 2050: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source for average battery size: </t>
+  </si>
+  <si>
+    <t>https://ev-database.org</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1023,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0\ %"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0\ %"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1128,7 +1146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1294,13 +1312,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1308,21 +1337,21 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1367,21 +1396,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1408,12 +1437,10 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1432,13 +1459,46 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1519,7 +1579,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2728,15 +2787,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AV33"/>
+  <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2745,7 +2809,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2754,7 +2818,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +3001,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -2963,7 +3027,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -2989,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3079,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -3040,7 +3104,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3129,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -3090,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>105</v>
       </c>
@@ -3115,7 +3179,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C14" s="3">
         <f>SUM(C6:C12)</f>
         <v>0.99999999999999989</v>
@@ -3882,190 +3946,2897 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R9"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:R5" si="0">C5+1</f>
-        <v>2016</v>
-      </c>
-      <c r="E5" s="1">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="O2" s="66">
+        <v>2020</v>
+      </c>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="X4" s="8">
+        <f>AVERAGE(P4:V4)</f>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Y4" s="8">
+        <f>MEDIAN(P4:V4)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB4" s="8">
+        <f>SUM(Y5,Y7,Y8,Y9)</f>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE4" s="8">
+        <f>SUM(P5:P10)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="AF4" s="8">
+        <f t="shared" ref="AF4:AK4" si="0">SUM(Q5:Q10)</f>
+        <v>1</v>
+      </c>
+      <c r="AG4" s="8">
         <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="F5" s="1">
+        <v>0.70500000000000007</v>
+      </c>
+      <c r="AH4" s="8">
         <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="G5" s="1">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AI4" s="8">
         <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="H5" s="1">
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="AJ4" s="8">
         <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8">
+        <f>MEDIAN(AE4:AK4)</f>
+        <v>0.70500000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="X5" s="8">
+        <f t="shared" ref="X5:X11" si="1">AVERAGE(P5:V5)</f>
+        <v>0.24333333333333332</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ref="Y5:Y11" si="2">MEDIAN(P5:V5)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="8">
+        <f>Y4</f>
+        <v>0.21</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>P4</f>
+        <v>0.4</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" ref="AF5:AK5" si="3">Q4</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="AI5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="AJ5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AK5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8">
+        <f>MEDIAN(AE5:AK5)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="8">
+        <f>Y11</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="8">
+        <f>P11</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" ref="AF6:AK6" si="4">Q11</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.19</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="AK6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.115</v>
+      </c>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8">
+        <f>MEDIAN(AE6:AK6)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="X7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.15666666666666665</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="S8" s="6">
+        <f>(0.73+0.4)/2</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="U8" s="6">
+        <f>0.06*2</f>
+        <v>0.12</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="AE8" s="8">
+        <f>SUM(AE4:AE6)</f>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" ref="AF8:AK8" si="5">SUM(AF4:AF6)</f>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="AI8" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AK8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AM8" s="8">
+        <f>SUM(AM4:AM6)</f>
+        <v>0.89500000000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="S9" s="6">
+        <f>(0.32+0.15)/2</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="1"/>
+        <v>9.2142857142857151E-2</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="O10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUM(C4:C9)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <f>0.15+0.09</f>
+        <v>0.24</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.17833333333333334</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="O12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="V14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1">
         <v>2020</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
+      <c r="D15" s="1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6">
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2030</v>
+      </c>
+      <c r="P15" s="8">
+        <f>SUM(P5:P10)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" ref="Q15:V15" si="6">SUM(Q5:Q10)</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.70500000000000007</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.46</v>
+      </c>
+      <c r="X15" s="8">
+        <f>SUM(X4:X13)</f>
+        <v>1.1929047619047619</v>
+      </c>
+      <c r="Y15" s="8">
+        <f>SUM(Y4:Y13)</f>
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="66">
+        <v>2030</v>
+      </c>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.312</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA19" s="8">
+        <f>MEDIAN(P19:Y19)</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="O20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Y20" s="6"/>
+      <c r="AA20" s="8">
+        <f t="shared" ref="AA20:AA25" si="7">MEDIAN(P20:Y20)</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD20" s="8">
+        <f>SUM(AA20:AA24)</f>
+        <v>0.89250000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="C21" s="8">
+        <f>SUM(C16:C19)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <f>SUM(D16:D19)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <f>SUM(H16:H19)</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <f>SUM(I16:I19)</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="X21" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="8">
+        <f t="shared" si="7"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="8">
+        <f>AA19</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="O22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="AA22" s="8">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="8">
+        <f>AA25</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="AA24" s="8">
+        <f t="shared" si="7"/>
+        <v>0.21</v>
+      </c>
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2030</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T25" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="D6">
-        <v>96</v>
-      </c>
-      <c r="E6">
-        <v>156</v>
-      </c>
-      <c r="F6">
-        <v>290</v>
-      </c>
-      <c r="G6">
-        <v>455</v>
-      </c>
-      <c r="H6">
-        <v>640</v>
-      </c>
-      <c r="I6">
-        <v>785</v>
-      </c>
-      <c r="J6">
-        <v>1060</v>
-      </c>
-      <c r="K6">
-        <v>1250</v>
-      </c>
-      <c r="L6">
-        <v>1450</v>
-      </c>
-      <c r="M6">
-        <v>1630</v>
-      </c>
-      <c r="N6">
-        <v>1800</v>
-      </c>
-      <c r="O6">
-        <v>1950</v>
-      </c>
-      <c r="P6">
+      <c r="C26" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="AA27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="8"/>
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="AA29" s="8">
+        <f>SUM(AA19:AA27)</f>
+        <v>1.0449999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="66">
+        <v>2040</v>
+      </c>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="66">
+        <v>2040</v>
+      </c>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8">
+        <f>SUM(C26:C32)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <f>SUM(D26:D32)</f>
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="8">
+        <f>MEDIAN(P34:R34)</f>
+        <v>0.125</v>
+      </c>
+      <c r="U34" s="8"/>
+      <c r="V34" t="s">
+        <v>2</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S35" s="6"/>
+      <c r="T35" s="8">
+        <f t="shared" ref="T35:T40" si="8">MEDIAN(P35:R35)</f>
+        <v>0.01</v>
+      </c>
+      <c r="U35" s="8"/>
+      <c r="V35" t="s">
+        <v>81</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0</v>
+      </c>
+      <c r="X35" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S36" s="6"/>
+      <c r="T36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" t="s">
+        <v>88</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0</v>
+      </c>
+      <c r="X36" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S37" s="6"/>
+      <c r="T37" s="8">
+        <f>MEDIAN(P37,(Q41 +Q37),(R37+R41))</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="X37" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="T38" s="8">
+        <f>MEDIAN(P38,(Q42),R42)</f>
+        <v>0.21</v>
+      </c>
+      <c r="U38" s="8"/>
+      <c r="V38" t="s">
+        <v>83</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2030</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2030</v>
+      </c>
+      <c r="O39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="T39" s="8">
+        <f>MEDIAN(P39,Q43,R43)</f>
+        <v>0.17</v>
+      </c>
+      <c r="U39" s="8"/>
+      <c r="V39" t="s">
+        <v>110</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="X39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="S40" s="6"/>
+      <c r="T40" s="8">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="6">
+        <v>0</v>
+      </c>
+      <c r="X40" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S41" s="6"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" t="s">
+        <v>89</v>
+      </c>
+      <c r="X41" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="I42" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="R42" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="S42" s="6"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" t="s">
+        <v>90</v>
+      </c>
+      <c r="X42" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="R43" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S43" s="6"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" t="s">
+        <v>91</v>
+      </c>
+      <c r="X43" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="S44" s="6"/>
+      <c r="U44" s="8"/>
+      <c r="V44" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="M45" s="39"/>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" s="6"/>
+      <c r="U45" s="8"/>
+      <c r="V45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="T46" s="8">
+        <f>SUM(T34:T43)</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8">
+        <f>SUM(C40:C45)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <f>SUM(D40:D45)</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="8">
+        <f>SUM(H40:H45)</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="8">
+        <f>SUM(I40:I45)</f>
+        <v>1</v>
+      </c>
+      <c r="U47" s="8"/>
+      <c r="W47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O48" s="66">
         <v>2050</v>
       </c>
-      <c r="Q6">
-        <v>2200</v>
-      </c>
-      <c r="R6">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>124</v>
-      </c>
-      <c r="M7">
-        <v>793.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8">
-        <v>725</v>
-      </c>
-      <c r="M8">
-        <v>1000</v>
-      </c>
-      <c r="R8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9">
-        <v>245</v>
-      </c>
-      <c r="I9">
-        <v>343</v>
-      </c>
-      <c r="J9">
-        <v>530</v>
-      </c>
-      <c r="K9">
-        <v>677</v>
-      </c>
-      <c r="L9">
-        <v>740</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="V48" s="66">
+        <v>2050</v>
+      </c>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0.255</v>
+      </c>
+      <c r="R50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="S50" s="6"/>
+      <c r="T50" s="8">
+        <f>MEDIAN(P50:R50)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>2</v>
+      </c>
+      <c r="W50" s="6">
+        <v>0</v>
+      </c>
+      <c r="X50" s="6">
+        <v>0.255</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Z50" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R51" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S51" s="6"/>
+      <c r="T51" s="8">
+        <f>MEDIAN(P51:R51)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V51" t="s">
+        <v>81</v>
+      </c>
+      <c r="W51" s="6">
+        <v>0</v>
+      </c>
+      <c r="X51" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z51" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2030</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2030</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="R52" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S52" s="6"/>
+      <c r="T52" s="8">
+        <f>MEDIAN(P52:R52)</f>
+        <v>0.01</v>
+      </c>
+      <c r="V52" t="s">
+        <v>88</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0</v>
+      </c>
+      <c r="X52" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O53" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="R53" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="S53" s="6"/>
+      <c r="T53" s="8">
+        <f>MEDIAN(P53,(Q53+Q56),(R53+R56))</f>
+        <v>0.11</v>
+      </c>
+      <c r="V53" t="s">
+        <v>4</v>
+      </c>
+      <c r="W53" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X53" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="T54" s="8">
+        <f>MEDIAN(P54,Q58,R58)</f>
+        <v>0.17</v>
+      </c>
+      <c r="V54" t="s">
+        <v>83</v>
+      </c>
+      <c r="W54" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O55" t="s">
+        <v>110</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="T55" s="8">
+        <f>MEDIAN(P55,Q59,R59)</f>
+        <v>0.33</v>
+      </c>
+      <c r="V55" t="s">
+        <v>110</v>
+      </c>
+      <c r="W55" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="R56" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="S56" s="6"/>
+      <c r="T56" s="8">
+        <f>MEDIAN(P56:R56)</f>
+        <v>0.02</v>
+      </c>
+      <c r="V56" t="s">
+        <v>6</v>
+      </c>
+      <c r="W56" s="6">
+        <v>0</v>
+      </c>
+      <c r="X56" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Z56" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O57" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="R57" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="8"/>
+      <c r="V57" t="s">
+        <v>89</v>
+      </c>
+      <c r="X57" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="Z57" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="R58" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S58" s="6"/>
+      <c r="T58" s="8"/>
+      <c r="V58" t="s">
+        <v>90</v>
+      </c>
+      <c r="X58" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O59" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="R59" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="S59" s="6"/>
+      <c r="T59" s="8"/>
+      <c r="V59" t="s">
+        <v>91</v>
+      </c>
+      <c r="X59" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="Z59" s="6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="S60" s="6"/>
+      <c r="V60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="8">
+        <f>SUM(C53:C59)</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <f>SUM(D53:D59)</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="8">
+        <f>SUM(H53:H59)</f>
+        <v>1</v>
+      </c>
+      <c r="I61" s="8">
+        <f>SUM(I53:I59)</f>
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>94</v>
+      </c>
+      <c r="S61" s="6"/>
+      <c r="T61" s="8">
+        <f>SUM(T50:T59)</f>
+        <v>0.74500000000000011</v>
+      </c>
+      <c r="V61" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="U62" s="6"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="U63" s="6"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R64" s="1"/>
+      <c r="U64" s="6"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U65" s="6"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2030</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2040</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="50">
+        <f>SUM(C69:C75)</f>
+        <v>1</v>
+      </c>
+      <c r="D77" s="50">
+        <f>SUM(D69:D75)</f>
+        <v>1</v>
+      </c>
+      <c r="E77" s="50">
+        <f>SUM(E69:E75)</f>
+        <v>1</v>
+      </c>
+      <c r="F77" s="50">
+        <f>SUM(F69:F75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2030</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2040</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2050</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L82" s="1">
+        <v>2030</v>
+      </c>
+      <c r="M82" s="1">
+        <v>2040</v>
+      </c>
+      <c r="N82" s="1">
+        <v>2050</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S82" s="1">
+        <v>2020</v>
+      </c>
+      <c r="T82" s="1">
+        <v>2030</v>
+      </c>
+      <c r="U82" s="1">
+        <v>2040</v>
+      </c>
+      <c r="V82" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.255</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>2</v>
+      </c>
+      <c r="S83" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="T83" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="U83" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="V83" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N84" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R84" t="s">
+        <v>81</v>
+      </c>
+      <c r="S84" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="U84" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="V84" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="D85" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J85" t="s">
+        <v>88</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="R85" t="s">
+        <v>88</v>
+      </c>
+      <c r="S85" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="T85" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="U85" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="V85" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="J86" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="R86" t="s">
+        <v>4</v>
+      </c>
+      <c r="S86" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="T86" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U86" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V86" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>89</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="M87" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N87" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="R87" t="s">
+        <v>89</v>
+      </c>
+      <c r="S87" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="T87" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U87" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="V87" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M88" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="N88" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R88" t="s">
+        <v>90</v>
+      </c>
+      <c r="S88" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="T88" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="U88" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="V88" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="J89" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="R89" t="s">
+        <v>91</v>
+      </c>
+      <c r="S89" s="6">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
+      <c r="U89" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V89" s="6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D90" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E90" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="R90" t="s">
+        <v>6</v>
+      </c>
+      <c r="S90" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="U90" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="V90" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R91" t="s">
+        <v>93</v>
+      </c>
+      <c r="S91" s="6">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
+      <c r="U91" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="V91" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="50">
+        <f>SUM(C83:C90)</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="50">
+        <f>SUM(D83:D90)</f>
+        <v>1</v>
+      </c>
+      <c r="E92" s="50">
+        <f>SUM(E83:E90)</f>
+        <v>1</v>
+      </c>
+      <c r="F92" s="50">
+        <f>SUM(F83:F90)</f>
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="50">
+        <f>SUM(K83:K90)</f>
+        <v>1</v>
+      </c>
+      <c r="L92" s="50">
+        <f>SUM(L83:L90)</f>
+        <v>1</v>
+      </c>
+      <c r="M92" s="50">
+        <f>SUM(M83:M90)</f>
+        <v>1</v>
+      </c>
+      <c r="N92" s="50">
+        <f>SUM(N83:N90)</f>
+        <v>1</v>
+      </c>
+      <c r="R92" t="s">
+        <v>94</v>
+      </c>
+      <c r="S92" s="6">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S94" s="50">
+        <f>SUM(S83:S92)</f>
+        <v>1</v>
+      </c>
+      <c r="T94" s="50">
+        <f>SUM(T83:T92)</f>
+        <v>1</v>
+      </c>
+      <c r="U94" s="50">
+        <f>SUM(U83:U92)</f>
+        <v>1</v>
+      </c>
+      <c r="V94" s="50">
+        <f>SUM(V83:V92)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O17:X17"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="V48:Z48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4073,13 +6844,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW21"/>
+  <dimension ref="A2:AW35"/>
   <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -4655,7 +7429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -4663,41 +7437,278 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>76</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:F29"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B31" r:id="rId1"/>
+    <hyperlink ref="B30" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4706,27 +7717,27 @@
   <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -4796,16 +7807,16 @@
         <f>Calculations_cells!F24</f>
         <v>0.98531357060081548</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -4838,16 +7849,16 @@
         <f>Calculations_cells!B24</f>
         <v>0.98501536609544393</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -4880,16 +7891,16 @@
         <f>Calculations_cells!C24</f>
         <v>0.96615593271143463</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -4922,16 +7933,16 @@
         <f>Calculations_cells!D24</f>
         <v>0.9840869715589361</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -4964,16 +7975,16 @@
         <f>Calculations_cells!G24</f>
         <v>1.0560349264523448</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -5002,16 +8013,16 @@
       <c r="I8" s="39">
         <v>0.98499999999999999</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -5043,16 +8054,16 @@
         <f>I6</f>
         <v>0.9840869715589361</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="56">
         <v>0.30403007518796993</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="57">
         <v>0.40538345864661651</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="57">
         <v>8.194736842105263E-2</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="57">
         <v>0.37545563909774438</v>
       </c>
     </row>
@@ -5060,7 +8071,7 @@
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="58">
         <v>1</v>
       </c>
       <c r="D10" s="39">
@@ -5131,14 +8142,14 @@
       <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
@@ -5271,14 +8282,14 @@
       <c r="A6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="I6" s="28" t="s">
         <v>57</v>
       </c>
@@ -6637,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AH39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6982,62 +9993,62 @@
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="AC21" s="56" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="AC21" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C23" s="63">
+      <c r="C23" s="55">
         <v>2015</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="55">
         <v>2016</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="55">
         <v>2017</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="55">
         <v>2018</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="55">
         <v>2019</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="55">
         <v>2020</v>
       </c>
       <c r="AC23">
@@ -7064,23 +10075,23 @@
         <v>14</v>
       </c>
       <c r="C24" s="2">
-        <f>100*AC24/$AC$34</f>
+        <f t="shared" ref="C24:C30" si="1">100*AC24/$AC$34</f>
         <v>8.4210526315789472E-2</v>
       </c>
       <c r="D24" s="2">
-        <f>100*AD24/$AD$34</f>
+        <f t="shared" ref="D24:D30" si="2">100*AD24/$AD$34</f>
         <v>8.5197018104366348E-2</v>
       </c>
       <c r="E24" s="2">
-        <f>100*AE24/$AE$34</f>
+        <f t="shared" ref="E24:E30" si="3">100*AE24/$AE$34</f>
         <v>8.1309398099260827E-2</v>
       </c>
       <c r="F24" s="2">
-        <f>100*AF24/$AF$34</f>
+        <f t="shared" ref="F24:F30" si="4">100*AF24/$AF$34</f>
         <v>7.8124999999999986E-2</v>
       </c>
       <c r="G24" s="2">
-        <f>100*AG24/$AG$34</f>
+        <f t="shared" ref="G24:G30" si="5">100*AG24/$AG$34</f>
         <v>7.518796992481204E-2</v>
       </c>
       <c r="H24" s="7">
@@ -7113,23 +10124,23 @@
         <v>15</v>
       </c>
       <c r="C25" s="2">
-        <f>100*AC25/$AC$34</f>
+        <f t="shared" si="1"/>
         <v>0.24736842105263157</v>
       </c>
       <c r="D25" s="2">
-        <f>100*AD25/$AD$34</f>
+        <f t="shared" si="2"/>
         <v>0.22896698615548458</v>
       </c>
       <c r="E25" s="2">
-        <f>100*AE25/$AE$34</f>
+        <f t="shared" si="3"/>
         <v>0.21119324181626187</v>
       </c>
       <c r="F25" s="2">
-        <f>100*AF25/$AF$34</f>
+        <f t="shared" si="4"/>
         <v>0.20312499999999997</v>
       </c>
       <c r="G25" s="2">
-        <f>100*AG25/$AG$34</f>
+        <f t="shared" si="5"/>
         <v>0.1933404940923738</v>
       </c>
       <c r="H25" s="7">
@@ -7162,23 +10173,23 @@
         <v>16</v>
       </c>
       <c r="C26" s="2">
-        <f>100*AC26/$AC$34</f>
+        <f t="shared" si="1"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="D26" s="2">
-        <f>100*AD26/$AD$34</f>
+        <f t="shared" si="2"/>
         <v>0.30883919062832799</v>
       </c>
       <c r="E26" s="2">
-        <f>100*AE26/$AE$34</f>
+        <f t="shared" si="3"/>
         <v>0.28511087645195354</v>
       </c>
       <c r="F26" s="2">
-        <f>100*AF26/$AF$34</f>
+        <f t="shared" si="4"/>
         <v>0.27083333333333331</v>
       </c>
       <c r="G26" s="2">
-        <f>100*AG26/$AG$34</f>
+        <f t="shared" si="5"/>
         <v>0.25241675617615467</v>
       </c>
       <c r="H26" s="7">
@@ -7211,23 +10222,23 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <f>100*AC27/$AC$34</f>
+        <f t="shared" si="1"/>
         <v>8.4210526315789472E-2</v>
       </c>
       <c r="D27" s="2">
-        <f>100*AD27/$AD$34</f>
+        <f t="shared" si="2"/>
         <v>8.5197018104366348E-2</v>
       </c>
       <c r="E27" s="2">
-        <f>100*AE27/$AE$34</f>
+        <f t="shared" si="3"/>
         <v>8.4477296726504753E-2</v>
       </c>
       <c r="F27" s="2">
-        <f>100*AF27/$AF$34</f>
+        <f t="shared" si="4"/>
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="G27" s="2">
-        <f>100*AG27/$AG$34</f>
+        <f t="shared" si="5"/>
         <v>6.4446831364124602E-2</v>
       </c>
       <c r="H27" s="7">
@@ -7260,23 +10271,23 @@
         <v>18</v>
       </c>
       <c r="C28" s="2">
-        <f>100*AC28/$AC$34</f>
+        <f t="shared" si="1"/>
         <v>3.1578947368421054E-2</v>
       </c>
       <c r="D28" s="2">
-        <f>100*AD28/$AD$34</f>
+        <f t="shared" si="2"/>
         <v>2.1299254526091587E-2</v>
       </c>
       <c r="E28" s="2">
-        <f>100*AE28/$AE$34</f>
+        <f t="shared" si="3"/>
         <v>2.8511087645195356E-2</v>
       </c>
       <c r="F28" s="2">
-        <f>100*AF28/$AF$34</f>
+        <f t="shared" si="4"/>
         <v>3.1249999999999997E-2</v>
       </c>
       <c r="G28" s="2">
-        <f>100*AG28/$AG$34</f>
+        <f t="shared" si="5"/>
         <v>2.4704618689581095E-2</v>
       </c>
       <c r="H28" s="7">
@@ -7309,23 +10320,23 @@
         <v>19</v>
       </c>
       <c r="C29" s="2">
-        <f>100*AC29/$AC$34</f>
+        <f t="shared" si="1"/>
         <v>5.263157894736842E-3</v>
       </c>
       <c r="D29" s="2">
-        <f>100*AD29/$AD$34</f>
+        <f t="shared" si="2"/>
         <v>4.2598509052183178E-3</v>
       </c>
       <c r="E29" s="2">
-        <f>100*AE29/$AE$34</f>
+        <f t="shared" si="3"/>
         <v>3.167898627243928E-3</v>
       </c>
       <c r="F29" s="2">
-        <f>100*AF29/$AF$34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f>100*AG29/$AG$34</f>
+        <f t="shared" si="5"/>
         <v>3.22234156820623E-3</v>
       </c>
       <c r="H29" s="7">
@@ -7358,23 +10369,23 @@
         <v>76</v>
       </c>
       <c r="C30" s="2">
-        <f>100*AC30/$AC$34</f>
+        <f t="shared" si="1"/>
         <v>0.23157894736842105</v>
       </c>
       <c r="D30" s="2">
-        <f>100*AD30/$AD$34</f>
+        <f t="shared" si="2"/>
         <v>0.26624068157614483</v>
       </c>
       <c r="E30" s="2">
-        <f>100*AE30/$AE$34</f>
+        <f t="shared" si="3"/>
         <v>0.3062302006335797</v>
       </c>
       <c r="F30" s="2">
-        <f>100*AF30/$AF$34</f>
+        <f t="shared" si="4"/>
         <v>0.34374999999999994</v>
       </c>
       <c r="G30" s="2">
-        <f>100*AG30/$AG$34</f>
+        <f t="shared" si="5"/>
         <v>0.38668098818474761</v>
       </c>
       <c r="H30" s="7">
@@ -7407,27 +10418,27 @@
         <v>217</v>
       </c>
       <c r="C32" s="4">
-        <f>SUM(C24:C30)</f>
+        <f t="shared" ref="C32:H32" si="6">SUM(C24:C30)</f>
         <v>1</v>
       </c>
       <c r="D32" s="4">
-        <f>SUM(D24:D30)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E32" s="4">
-        <f>SUM(E24:E30)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <f>SUM(F24:F30)</f>
+        <f t="shared" si="6"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="G32" s="4">
-        <f>SUM(G24:G30)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H32" s="4">
-        <f>SUM(H24:H30)</f>
+        <f t="shared" si="6"/>
         <v>0.99851063829787234</v>
       </c>
     </row>
@@ -7440,23 +10451,23 @@
         <v>0.95</v>
       </c>
       <c r="AD33" s="8">
-        <f t="shared" ref="AD33:AH33" si="1">SUM(AD24:AD30)</f>
+        <f t="shared" ref="AD33:AH33" si="7">SUM(AD24:AD30)</f>
         <v>0.93899999999999995</v>
       </c>
       <c r="AE33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.94700000000000006</v>
       </c>
       <c r="AF33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.96000000000000019</v>
       </c>
       <c r="AG33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.93099999999999994</v>
       </c>
       <c r="AH33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99851063829787234</v>
       </c>
     </row>
@@ -7466,19 +10477,19 @@
         <v>95</v>
       </c>
       <c r="AD34" s="39">
-        <f t="shared" ref="AD34:AG34" si="2">AD33*100</f>
+        <f t="shared" ref="AD34:AG34" si="8">AD33*100</f>
         <v>93.899999999999991</v>
       </c>
       <c r="AE34" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>94.7</v>
       </c>
       <c r="AF34" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>96.000000000000014</v>
       </c>
       <c r="AG34" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>93.1</v>
       </c>
     </row>
@@ -7563,8 +10574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8070,17 +11081,11 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="8">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0.77500000000000002</v>
-      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="W7" s="8">
         <v>0.77500000000000002</v>
@@ -8486,2904 +11491,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM94"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="O2" s="55">
-        <v>2020</v>
-      </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="C3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="X4" s="8">
-        <f>AVERAGE(P4:V4)</f>
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="Y4" s="8">
-        <f>MEDIAN(P4:V4)</f>
-        <v>0.21</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB4" s="8">
-        <f>SUM(Y5,Y7,Y8,Y9)</f>
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE4" s="8">
-        <f>SUM(P5:P10)</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="AF4" s="8">
-        <f t="shared" ref="AF4:AK4" si="0">SUM(Q5:Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.70500000000000007</v>
-      </c>
-      <c r="AH4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AI4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="AJ4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AK4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8">
-        <f>MEDIAN(AE4:AK4)</f>
-        <v>0.70500000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="U5" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="V5" s="6"/>
-      <c r="X5" s="8">
-        <f t="shared" ref="X5:X11" si="1">AVERAGE(P5:V5)</f>
-        <v>0.24333333333333332</v>
-      </c>
-      <c r="Y5" s="8">
-        <f t="shared" ref="Y5:Y11" si="2">MEDIAN(P5:V5)</f>
-        <v>0.24</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="8">
-        <f>Y4</f>
-        <v>0.21</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="8">
-        <f>P4</f>
-        <v>0.4</v>
-      </c>
-      <c r="AF5" s="8">
-        <f t="shared" ref="AF5:AK5" si="3">Q4</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="AI5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="AJ5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="AK5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8">
-        <f>MEDIAN(AE5:AK5)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="AA6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="8">
-        <f>Y11</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="8">
-        <f>P11</f>
-        <v>0.01</v>
-      </c>
-      <c r="AF6" s="8">
-        <f t="shared" ref="AF6:AK6" si="4">Q11</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.24</v>
-      </c>
-      <c r="AH6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AI6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.19</v>
-      </c>
-      <c r="AJ6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.375</v>
-      </c>
-      <c r="AK6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.115</v>
-      </c>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8">
-        <f>MEDIAN(AE6:AK6)</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="X7" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15666666666666665</v>
-      </c>
-      <c r="Y7" s="8">
-        <f t="shared" si="2"/>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="S8" s="6">
-        <f>(0.73+0.4)/2</f>
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0.44</v>
-      </c>
-      <c r="U8" s="6">
-        <f>0.06*2</f>
-        <v>0.12</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="X8" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32142857142857145</v>
-      </c>
-      <c r="Y8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="AE8" s="8">
-        <f>SUM(AE4:AE6)</f>
-        <v>0.98000000000000009</v>
-      </c>
-      <c r="AF8" s="8">
-        <f t="shared" ref="AF8:AK8" si="5">SUM(AF4:AF6)</f>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="8">
-        <f t="shared" si="5"/>
-        <v>0.94500000000000006</v>
-      </c>
-      <c r="AH8" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99</v>
-      </c>
-      <c r="AI8" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AK8" s="8">
-        <f t="shared" si="5"/>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="AM8" s="8">
-        <f>SUM(AM4:AM6)</f>
-        <v>0.89500000000000013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="S9" s="6">
-        <f>(0.32+0.15)/2</f>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" si="1"/>
-        <v>9.2142857142857151E-2</v>
-      </c>
-      <c r="Y9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="O10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <f>SUM(C4:C9)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6">
-        <f>0.15+0.09</f>
-        <v>0.24</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0.115</v>
-      </c>
-      <c r="X11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.17833333333333334</v>
-      </c>
-      <c r="Y11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="O12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="X13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="V14" s="8"/>
-      <c r="Y14" s="8"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2030</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2030</v>
-      </c>
-      <c r="P15" s="8">
-        <f>SUM(P5:P10)</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" ref="Q15:V15" si="6">SUM(Q5:Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.70500000000000007</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.46</v>
-      </c>
-      <c r="X15" s="8">
-        <f>SUM(X4:X13)</f>
-        <v>1.1929047619047619</v>
-      </c>
-      <c r="Y15" s="8">
-        <f>SUM(Y4:Y13)</f>
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O17" s="55">
-        <v>2030</v>
-      </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.312</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AA19" s="8">
-        <f>MEDIAN(P19:Y19)</f>
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="O20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="W20" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="Y20" s="6"/>
-      <c r="AA20" s="8">
-        <f t="shared" ref="AA20:AA25" si="7">MEDIAN(P20:Y20)</f>
-        <v>5.5E-2</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD20" s="8">
-        <f>SUM(AA20:AA24)</f>
-        <v>0.89250000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="C21" s="8">
-        <f>SUM(C16:C19)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <f>SUM(D16:D19)</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <f>SUM(H16:H19)</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
-        <f>SUM(I16:I19)</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="W21" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="8">
-        <f t="shared" si="7"/>
-        <v>8.7500000000000008E-2</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="8">
-        <f>AA19</f>
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="O22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="V22" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="AA22" s="8">
-        <f t="shared" si="7"/>
-        <v>0.27</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD22" s="8">
-        <f>AA25</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0.46</v>
-      </c>
-      <c r="AA23" s="8">
-        <f t="shared" si="7"/>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="AA24" s="8">
-        <f t="shared" si="7"/>
-        <v>0.21</v>
-      </c>
-      <c r="AD24" s="8"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2030</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="S25" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T25" s="6">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AA25" s="8">
-        <f t="shared" si="7"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="8"/>
-      <c r="AA28" s="8"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="AA29" s="8">
-        <f>SUM(AA19:AA27)</f>
-        <v>1.0449999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="55">
-        <v>2040</v>
-      </c>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="55">
-        <v>2040</v>
-      </c>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O33" s="1"/>
-      <c r="P33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8">
-        <f>SUM(C26:C32)</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <f>SUM(D26:D32)</f>
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="8">
-        <f>MEDIAN(P34:R34)</f>
-        <v>0.125</v>
-      </c>
-      <c r="U34" s="8"/>
-      <c r="V34" t="s">
-        <v>2</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O35" t="s">
-        <v>81</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="8">
-        <f t="shared" ref="T35:T40" si="8">MEDIAN(P35:R35)</f>
-        <v>0.01</v>
-      </c>
-      <c r="U35" s="8"/>
-      <c r="V35" t="s">
-        <v>81</v>
-      </c>
-      <c r="W35" s="6">
-        <v>0</v>
-      </c>
-      <c r="X35" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O36" t="s">
-        <v>88</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="8">
-        <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="U36" s="8"/>
-      <c r="V36" t="s">
-        <v>88</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="Z36" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O37" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="8">
-        <f>MEDIAN(P37,(Q41 +Q37),(R37+R41))</f>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="U37" s="8"/>
-      <c r="V37" t="s">
-        <v>4</v>
-      </c>
-      <c r="W37" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="X37" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O38" t="s">
-        <v>83</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="Q38" s="6"/>
-      <c r="T38" s="8">
-        <f>MEDIAN(P38,(Q42),R42)</f>
-        <v>0.21</v>
-      </c>
-      <c r="U38" s="8"/>
-      <c r="V38" t="s">
-        <v>83</v>
-      </c>
-      <c r="W38" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2030</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2030</v>
-      </c>
-      <c r="O39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q39" s="6"/>
-      <c r="T39" s="8">
-        <f>MEDIAN(P39,Q43,R43)</f>
-        <v>0.17</v>
-      </c>
-      <c r="U39" s="8"/>
-      <c r="V39" t="s">
-        <v>110</v>
-      </c>
-      <c r="W39" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="X39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R40" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="8">
-        <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="U40" s="8"/>
-      <c r="V40" t="s">
-        <v>6</v>
-      </c>
-      <c r="W40" s="6">
-        <v>0</v>
-      </c>
-      <c r="X40" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="Z40" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" t="s">
-        <v>89</v>
-      </c>
-      <c r="X41" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z41" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="I42" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O42" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="R42" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" t="s">
-        <v>90</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="Y42" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="Z42" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="R43" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" t="s">
-        <v>91</v>
-      </c>
-      <c r="X43" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z43" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="O44" t="s">
-        <v>93</v>
-      </c>
-      <c r="S44" s="6"/>
-      <c r="U44" s="8"/>
-      <c r="V44" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z44" s="6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M45" s="39"/>
-      <c r="O45" t="s">
-        <v>94</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="U45" s="8"/>
-      <c r="V45" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z45" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="T46" s="8">
-        <f>SUM(T34:T43)</f>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="8">
-        <f>SUM(C40:C45)</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="8">
-        <f>SUM(D40:D45)</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="8">
-        <f>SUM(H40:H45)</f>
-        <v>1</v>
-      </c>
-      <c r="I47" s="8">
-        <f>SUM(I40:I45)</f>
-        <v>1</v>
-      </c>
-      <c r="U47" s="8"/>
-      <c r="W47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O48" s="55">
-        <v>2050</v>
-      </c>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="V48" s="55">
-        <v>2050</v>
-      </c>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O50" t="s">
-        <v>2</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0.255</v>
-      </c>
-      <c r="R50" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="8">
-        <f>MEDIAN(P50:R50)</f>
-        <v>0.1</v>
-      </c>
-      <c r="V50" t="s">
-        <v>2</v>
-      </c>
-      <c r="W50" s="6">
-        <v>0</v>
-      </c>
-      <c r="X50" s="6">
-        <v>0.255</v>
-      </c>
-      <c r="Y50" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Z50" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O51" t="s">
-        <v>81</v>
-      </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R51" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="8">
-        <f>MEDIAN(P51:R51)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V51" t="s">
-        <v>81</v>
-      </c>
-      <c r="W51" s="6">
-        <v>0</v>
-      </c>
-      <c r="X51" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y51" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Z51" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2030</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I52" s="1">
-        <v>2030</v>
-      </c>
-      <c r="O52" t="s">
-        <v>88</v>
-      </c>
-      <c r="P52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="R52" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="8">
-        <f>MEDIAN(P52:R52)</f>
-        <v>0.01</v>
-      </c>
-      <c r="V52" t="s">
-        <v>88</v>
-      </c>
-      <c r="W52" s="6">
-        <v>0</v>
-      </c>
-      <c r="X52" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="Y52" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="Z52" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="O53" t="s">
-        <v>4</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="R53" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="8">
-        <f>MEDIAN(P53,(Q53+Q56),(R53+R56))</f>
-        <v>0.11</v>
-      </c>
-      <c r="V53" t="s">
-        <v>4</v>
-      </c>
-      <c r="W53" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="X53" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="Y53" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="Z53" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>83</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="T54" s="8">
-        <f>MEDIAN(P54,Q58,R58)</f>
-        <v>0.17</v>
-      </c>
-      <c r="V54" t="s">
-        <v>83</v>
-      </c>
-      <c r="W54" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G55" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O55" t="s">
-        <v>110</v>
-      </c>
-      <c r="P55" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="T55" s="8">
-        <f>MEDIAN(P55,Q59,R59)</f>
-        <v>0.33</v>
-      </c>
-      <c r="V55" t="s">
-        <v>110</v>
-      </c>
-      <c r="W55" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>6</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="R56" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="8">
-        <f>MEDIAN(P56:R56)</f>
-        <v>0.02</v>
-      </c>
-      <c r="V56" t="s">
-        <v>6</v>
-      </c>
-      <c r="W56" s="6">
-        <v>0</v>
-      </c>
-      <c r="X56" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="Y56" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="Z56" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="G57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="O57" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="R57" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="8"/>
-      <c r="V57" t="s">
-        <v>89</v>
-      </c>
-      <c r="X57" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="Z57" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="O58" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="R58" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="8"/>
-      <c r="V58" t="s">
-        <v>90</v>
-      </c>
-      <c r="X58" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="Y58" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z58" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="G59" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="O59" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="R59" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="8"/>
-      <c r="V59" t="s">
-        <v>91</v>
-      </c>
-      <c r="X59" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="Y59" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="Z59" s="6">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O60" t="s">
-        <v>93</v>
-      </c>
-      <c r="S60" s="6"/>
-      <c r="V60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z60" s="6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8">
-        <f>SUM(C53:C59)</f>
-        <v>1</v>
-      </c>
-      <c r="D61" s="8">
-        <f>SUM(D53:D59)</f>
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="8">
-        <f>SUM(H53:H59)</f>
-        <v>1</v>
-      </c>
-      <c r="I61" s="8">
-        <f>SUM(I53:I59)</f>
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>94</v>
-      </c>
-      <c r="S61" s="6"/>
-      <c r="T61" s="8">
-        <f>SUM(T50:T59)</f>
-        <v>0.74500000000000011</v>
-      </c>
-      <c r="V61" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z61" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="U62" s="6"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="U63" s="6"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="R64" s="1"/>
-      <c r="U64" s="6"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U65" s="6"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2030</v>
-      </c>
-      <c r="E68" s="1">
-        <v>2040</v>
-      </c>
-      <c r="F68" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="D70" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="6">
-        <v>0.44</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="F73" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="E74" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F74" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="50">
-        <f>SUM(C69:C75)</f>
-        <v>1</v>
-      </c>
-      <c r="D77" s="50">
-        <f>SUM(D69:D75)</f>
-        <v>1</v>
-      </c>
-      <c r="E77" s="50">
-        <f>SUM(E69:E75)</f>
-        <v>1</v>
-      </c>
-      <c r="F77" s="50">
-        <f>SUM(F69:F75)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B80" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2030</v>
-      </c>
-      <c r="E82" s="1">
-        <v>2040</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2050</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K82" s="1">
-        <v>2020</v>
-      </c>
-      <c r="L82" s="1">
-        <v>2030</v>
-      </c>
-      <c r="M82" s="1">
-        <v>2040</v>
-      </c>
-      <c r="N82" s="1">
-        <v>2050</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S82" s="1">
-        <v>2020</v>
-      </c>
-      <c r="T82" s="1">
-        <v>2030</v>
-      </c>
-      <c r="U82" s="1">
-        <v>2040</v>
-      </c>
-      <c r="V82" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0.255</v>
-      </c>
-      <c r="J83" t="s">
-        <v>2</v>
-      </c>
-      <c r="K83" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L83" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="M83" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="N83" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="R83" t="s">
-        <v>2</v>
-      </c>
-      <c r="S83" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="T83" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="U83" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="V83" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="D84" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="E84" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F84" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>81</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="L84" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="M84" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="N84" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R84" t="s">
-        <v>81</v>
-      </c>
-      <c r="S84" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="T84" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="U84" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="V84" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="D85" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="F85" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="J85" t="s">
-        <v>88</v>
-      </c>
-      <c r="K85" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="L85" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="M85" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="N85" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="R85" t="s">
-        <v>88</v>
-      </c>
-      <c r="S85" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="T85" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="U85" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="V85" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D86" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="F86" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="J86" t="s">
-        <v>4</v>
-      </c>
-      <c r="K86" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="L86" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M86" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N86" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="R86" t="s">
-        <v>4</v>
-      </c>
-      <c r="S86" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U86" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="V86" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D87" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="F87" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>89</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="L87" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="M87" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N87" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="R87" t="s">
-        <v>89</v>
-      </c>
-      <c r="S87" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="T87" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U87" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="V87" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="D88" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E88" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="F88" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="J88" t="s">
-        <v>90</v>
-      </c>
-      <c r="K88" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L88" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M88" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="N88" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R88" t="s">
-        <v>90</v>
-      </c>
-      <c r="S88" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="T88" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="U88" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="V88" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="F89" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="J89" t="s">
-        <v>91</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="R89" t="s">
-        <v>91</v>
-      </c>
-      <c r="S89" s="6">
-        <v>0</v>
-      </c>
-      <c r="T89" s="7">
-        <v>0</v>
-      </c>
-      <c r="U89" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V89" s="6">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="6">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D90" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E90" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F90" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="J90" t="s">
-        <v>6</v>
-      </c>
-      <c r="K90" s="6">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="L90" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="M90" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="N90" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="R90" t="s">
-        <v>6</v>
-      </c>
-      <c r="S90" s="6">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="T90" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="U90" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="V90" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="R91" t="s">
-        <v>93</v>
-      </c>
-      <c r="S91" s="6">
-        <v>0</v>
-      </c>
-      <c r="T91" s="7">
-        <v>0</v>
-      </c>
-      <c r="U91" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="V91" s="6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="50">
-        <f>SUM(C83:C90)</f>
-        <v>1</v>
-      </c>
-      <c r="D92" s="50">
-        <f>SUM(D83:D90)</f>
-        <v>1</v>
-      </c>
-      <c r="E92" s="50">
-        <f>SUM(E83:E90)</f>
-        <v>1</v>
-      </c>
-      <c r="F92" s="50">
-        <f>SUM(F83:F90)</f>
-        <v>1</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K92" s="50">
-        <f>SUM(K83:K90)</f>
-        <v>1</v>
-      </c>
-      <c r="L92" s="50">
-        <f>SUM(L83:L90)</f>
-        <v>1</v>
-      </c>
-      <c r="M92" s="50">
-        <f>SUM(M83:M90)</f>
-        <v>1</v>
-      </c>
-      <c r="N92" s="50">
-        <f>SUM(N83:N90)</f>
-        <v>1</v>
-      </c>
-      <c r="R92" t="s">
-        <v>94</v>
-      </c>
-      <c r="S92" s="6">
-        <v>0</v>
-      </c>
-      <c r="T92" s="7">
-        <v>0</v>
-      </c>
-      <c r="U92" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="V92" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="R94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S94" s="50">
-        <f>SUM(S83:S92)</f>
-        <v>1</v>
-      </c>
-      <c r="T94" s="50">
-        <f>SUM(T83:T92)</f>
-        <v>1</v>
-      </c>
-      <c r="U94" s="50">
-        <f>SUM(U83:U92)</f>
-        <v>1</v>
-      </c>
-      <c r="V94" s="50">
-        <f>SUM(V83:V92)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O17:X17"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O48:S48"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V48:Z48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT99"/>
   <sheetViews>
@@ -12550,13 +12657,198 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:R9"/>
+  <sheetViews>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:R5" si="0">C5+1</f>
+        <v>2016</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>156</v>
+      </c>
+      <c r="F6">
+        <v>290</v>
+      </c>
+      <c r="G6">
+        <v>455</v>
+      </c>
+      <c r="H6">
+        <v>640</v>
+      </c>
+      <c r="I6">
+        <v>785</v>
+      </c>
+      <c r="J6">
+        <v>1060</v>
+      </c>
+      <c r="K6">
+        <v>1250</v>
+      </c>
+      <c r="L6">
+        <v>1450</v>
+      </c>
+      <c r="M6">
+        <v>1630</v>
+      </c>
+      <c r="N6">
+        <v>1800</v>
+      </c>
+      <c r="O6">
+        <v>1950</v>
+      </c>
+      <c r="P6">
+        <v>2050</v>
+      </c>
+      <c r="Q6">
+        <v>2200</v>
+      </c>
+      <c r="R6">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>124</v>
+      </c>
+      <c r="M7">
+        <v>793.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8">
+        <v>725</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9">
+        <v>245</v>
+      </c>
+      <c r="I9">
+        <v>343</v>
+      </c>
+      <c r="J9">
+        <v>530</v>
+      </c>
+      <c r="K9">
+        <v>677</v>
+      </c>
+      <c r="L9">
+        <v>740</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011E460AF58AE884FBDAFE5F0BC8A3C26" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="880aabc0518a0ac9df850906ef26756d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ccfbfb3-c687-46c4-b522-0c2663e8cb99" xmlns:ns4="980b4d08-f6c4-45be-a157-5b38f890fa41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d6f96f3db87ad2e8c33f938e7abbbca" ns3:_="" ns4:_="">
     <xsd:import namespace="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
@@ -12779,6 +13071,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12789,23 +13087,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5796374D-9F40-46F3-95B3-0698EE8CD9C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="980b4d08-f6c4-45be-a157-5b38f890fa41"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A176511-BC92-43A2-933C-AC6330DE2C69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12824,6 +13105,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5796374D-9F40-46F3-95B3-0698EE8CD9C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="980b4d08-f6c4-45be-a157-5b38f890fa41"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18772E26-F2EA-4DBB-A9C9-CCFDF38A2BA9}">
   <ds:schemaRefs>

--- a/BEVs_LIB_CAPEX_employment stats.xlsx
+++ b/BEVs_LIB_CAPEX_employment stats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzou\Box Sync\PhD work\Paper 2 - Mapping materials demand for high penetration of EVs, challenges and opportunities\Python script\LIBs demand\LIBs-demand-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzou\Box\PhD work\Paper 2 - Mapping materials demand for high penetration of EVs, challenges and opportunities\Python script\LIBs demand\LIBs-demand-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9971F49-EF2B-4021-AA81-3C819A7F9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="1920" windowWidth="17150" windowHeight="15780" activeTab="5"/>
+    <workbookView xWindow="7500" yWindow="1125" windowWidth="29685" windowHeight="19560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemistries_scenario" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="Production capacity" sheetId="13" r:id="rId9"/>
     <sheet name="LIBs forecast from literature" sheetId="18" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +35,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dai, Qiang</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -270,12 +272,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lorenzo Usai</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -909,9 +911,6 @@
     <t>CATL</t>
   </si>
   <si>
-    <t>Nature paper</t>
-  </si>
-  <si>
     <t>Job loss</t>
   </si>
   <si>
@@ -1015,12 +1014,15 @@
   </si>
   <si>
     <t>https://ev-database.org</t>
+  </si>
+  <si>
+    <t>Pillot Cristophe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0\ %"/>
@@ -1441,6 +1443,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1468,37 +1501,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1604,7 +1606,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nb-NO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1730,7 +1732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="729258072"/>
@@ -1792,7 +1794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="729257744"/>
@@ -1833,7 +1835,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2786,21 +2788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2809,7 +2811,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2818,7 +2820,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>105</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <f>SUM(C6:C12)</f>
         <v>0.99999999999999989</v>
@@ -3390,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3438,7 +3440,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
     </row>
-    <row r="20" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3486,7 +3488,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3534,7 +3536,7 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
     </row>
-    <row r="25" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6"/>
@@ -3578,7 +3580,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
     </row>
-    <row r="26" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="6"/>
@@ -3622,7 +3624,7 @@
       <c r="AU26" s="6"/>
       <c r="AV26" s="6"/>
     </row>
-    <row r="27" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6"/>
@@ -3666,7 +3668,7 @@
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6"/>
@@ -3710,7 +3712,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6"/>
@@ -3754,7 +3756,7 @@
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>
@@ -3798,7 +3800,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6"/>
@@ -3842,7 +3844,7 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3890,7 +3892,7 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -3945,44 +3947,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AM94"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="O2" s="66">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="O2" s="77">
         <v>2020</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>2020</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -4093,7 +4095,7 @@
         <v>0.70500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>0.89500000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
         <v>105</v>
       </c>
@@ -4395,7 +4397,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
         <v>108</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
@@ -4477,11 +4479,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="V14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -4576,20 +4578,20 @@
       <c r="I17" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="77">
         <v>2030</v>
       </c>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O20" s="1" t="s">
         <v>101</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>0.89250000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C21" s="8">
         <f>SUM(C16:C19)</f>
         <v>1</v>
@@ -4781,7 +4783,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="O24" s="1" t="s">
         <v>105</v>
@@ -4896,7 +4898,7 @@
       </c>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="1">
         <v>2020</v>
@@ -4938,7 +4940,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -4967,7 +4969,7 @@
       </c>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>98</v>
       </c>
@@ -4993,7 +4995,7 @@
       <c r="X27" s="6"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -5015,7 +5017,7 @@
       <c r="Y28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>75</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -5065,7 +5067,7 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>88</v>
       </c>
@@ -5075,24 +5077,24 @@
       <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="O32" s="66">
+      <c r="O32" s="77">
         <v>2040</v>
       </c>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
       <c r="T32" s="51"/>
       <c r="U32" s="51"/>
-      <c r="V32" s="66">
+      <c r="V32" s="77">
         <v>2040</v>
       </c>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
         <v>127</v>
@@ -5118,7 +5120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O35" t="s">
         <v>81</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O36" t="s">
         <v>88</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O38" t="s">
         <v>83</v>
       </c>
@@ -5293,7 +5295,7 @@
       </c>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -5473,7 +5475,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>75</v>
       </c>
@@ -5580,13 +5582,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="T46" s="8">
         <f>SUM(T34:T43)</f>
         <v>0.78</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -5614,23 +5616,23 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O48" s="66">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O48" s="77">
         <v>2050</v>
       </c>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="66"/>
-      <c r="V48" s="66">
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="V48" s="77">
         <v>2050</v>
       </c>
-      <c r="W48" s="66"/>
-      <c r="X48" s="66"/>
-      <c r="Y48" s="66"/>
-      <c r="Z48" s="66"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
         <v>127</v>
@@ -5656,7 +5658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O51" t="s">
         <v>81</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
@@ -5779,7 +5781,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>6</v>
       </c>
@@ -5867,7 +5869,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>2</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>101</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>4</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>75</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>105</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O60" t="s">
         <v>93</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
@@ -6134,23 +6136,23 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U62" s="6"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R64" s="1"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>109</v>
       </c>
       <c r="U65" s="6"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>2</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>81</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>88</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>83</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>110</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
@@ -6307,12 +6309,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>2</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>81</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>89</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>90</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>91</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R91" t="s">
         <v>93</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R94" s="1" t="s">
         <v>7</v>
       </c>
@@ -6843,24 +6845,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AW35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -7196,7 +7198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -7400,12 +7402,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -7413,7 +7415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7437,219 +7439,219 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>76</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -7663,7 +7665,7 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7672,7 +7674,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="13:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7681,7 +7683,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="13:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7690,7 +7692,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="13:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7704,8 +7706,8 @@
     <mergeCell ref="B24:F29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1"/>
-    <hyperlink ref="B30" r:id="rId2"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B30" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7713,33 +7715,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C1" s="59" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7778,7 +7780,7 @@
       </c>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -7904,7 +7906,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>75</v>
       </c>
@@ -7946,7 +7948,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -7988,7 +7990,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>101</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
@@ -8108,10 +8110,10 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
   </sheetData>
@@ -8125,33 +8127,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="23" t="s">
         <v>39</v>
@@ -8190,7 +8192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>42</v>
       </c>
@@ -8240,7 +8242,7 @@
         <v>0.15943298518830254</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>43</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>1.0541554036552896</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -8278,18 +8280,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="I6" s="28" t="s">
         <v>57</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>6.2722277878628665</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>39</v>
@@ -8359,7 +8361,7 @@
         <v>3.839027439007528E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>0.60762938258084864</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -8492,7 +8494,7 @@
         <v>0.35398034302907622</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>46</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>47</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>180.80099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>48</v>
       </c>
@@ -8645,7 +8647,7 @@
       </c>
       <c r="P12" s="39"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>49</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>1.9384431380384937</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>50</v>
       </c>
@@ -8719,7 +8721,7 @@
       </c>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>51</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>52</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>4.5675924707121236E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>53</v>
       </c>
@@ -8828,7 +8830,7 @@
         <v>0.20402790575227064</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>54</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>0.75029616954060818</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>55</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>151.94</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>34</v>
       </c>
@@ -8921,19 +8923,19 @@
       </c>
       <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I21" s="41"/>
       <c r="S21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="I22" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>45</v>
       </c>
@@ -8983,7 +8985,7 @@
         <v>7.2234694383031831E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>33</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>0.48871074027188804</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>46</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>9.1992303846536491E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>47</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>1.4039610546660844E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>48</v>
       </c>
@@ -9169,7 +9171,7 @@
         <v>0.33302265095188277</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>49</v>
       </c>
@@ -9198,7 +9200,7 @@
         <v>0.47309975851553665</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>50</v>
       </c>
@@ -9231,7 +9233,7 @@
         <v>96.089560000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>62</v>
       </c>
@@ -9260,7 +9262,7 @@
         <v>1.1805179875068721</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>63</v>
       </c>
@@ -9289,7 +9291,7 @@
         <v>0.12160318409641244</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ref="B34:G34" si="12">B29*0.05</f>
         <v>5.6536961986425752E-3</v>
@@ -9315,12 +9317,12 @@
         <v>1.0572070877320124E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="45" t="s">
         <v>27</v>
@@ -9353,7 +9355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>1</v>
       </c>
@@ -9388,7 +9390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>39</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>40</v>
       </c>
@@ -9458,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>41</v>
       </c>
@@ -9493,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>67</v>
       </c>
@@ -9528,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>2</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>5</v>
       </c>
@@ -9598,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>6</v>
       </c>
@@ -9645,16 +9647,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:AH39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -9684,7 +9686,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -9714,7 +9716,7 @@
         <v>89.340304000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -9744,7 +9746,7 @@
         <v>63.520899999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -9774,7 +9776,7 @@
         <v>290.63430399999993</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -9804,7 +9806,7 @@
         <v>142.49196899999998</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -9812,7 +9814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -9842,7 +9844,7 @@
         <v>196.2801</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>356.83210000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -9902,7 +9904,7 @@
         <v>266.44522592249996</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -9932,7 +9934,7 @@
         <v>83.162216126223996</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -9962,7 +9964,7 @@
         <v>137.16368265610001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -9992,47 +9994,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C20" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="AC21" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="64"/>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C20" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="AC21" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C23" s="55">
         <v>2015</v>
       </c>
@@ -10070,7 +10072,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -10119,7 +10121,7 @@
         <v>7.7659574468085107E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>0.19255319148936167</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -10217,7 +10219,7 @@
         <v>0.24925531914893617</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -10266,7 +10268,7 @@
         <v>6.3723404255319152E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -10315,7 +10317,7 @@
         <v>2.3829787234042551E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
@@ -10364,7 +10366,7 @@
         <v>3.1914893617021275E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
@@ -10413,9 +10415,9 @@
         <v>0.38829787234042551</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32:H32" si="6">SUM(C24:C30)</f>
@@ -10442,7 +10444,7 @@
         <v>0.99851063829787234</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AB33" s="1" t="s">
         <v>72</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>0.99851063829787234</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AC34" s="39">
         <f>AC33*100</f>
         <v>95</v>
@@ -10493,7 +10495,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>2015</v>
       </c>
@@ -10513,7 +10515,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>162</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>2008024</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>163</v>
       </c>
@@ -10571,23 +10573,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -10752,7 +10754,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>120</v>
       </c>
@@ -10917,9 +10919,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -11045,7 +11047,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>0.99399999999999999</v>
       </c>
@@ -11155,24 +11157,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:W8"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C3" s="52">
         <v>2000</v>
       </c>
@@ -11222,12 +11224,12 @@
         <v>2015</v>
       </c>
       <c r="W3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4">
         <v>2694000000</v>
@@ -11278,12 +11280,12 @@
         <v>5754000000</v>
       </c>
       <c r="W4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J5">
         <v>24464000</v>
@@ -11313,12 +11315,12 @@
         <v>284780000</v>
       </c>
       <c r="W5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6">
         <v>273056000</v>
@@ -11369,12 +11371,12 @@
         <v>10792708000</v>
       </c>
       <c r="W6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="53">
         <v>1492108000</v>
@@ -11425,12 +11427,12 @@
         <v>2115600000</v>
       </c>
       <c r="W7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="53">
         <v>270000</v>
@@ -11481,7 +11483,7 @@
         <v>20900000</v>
       </c>
       <c r="W8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -11491,29 +11493,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AT99"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC87" sqref="AC87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>135</v>
       </c>
@@ -11521,7 +11523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -11535,7 +11537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -11552,7 +11554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -11595,7 +11597,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>145</v>
       </c>
@@ -11603,72 +11605,72 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>(D3/C3)/1000000</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" ref="C11:C14" si="0">(D4/C4)/1000000</f>
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="0"/>
         <v>43.07692307692308</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="0"/>
         <v>106.66666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J17" s="54" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J18" s="54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>157</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -11724,7 +11726,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -11753,7 +11755,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -11774,7 +11776,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -11806,7 +11808,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -11823,12 +11825,12 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>A3</f>
         <v>Gigafactory 1</v>
@@ -11847,7 +11849,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>A4</f>
         <v>Northvolt</v>
@@ -11857,7 +11859,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>A5</f>
         <v>LG Chem Wroclaw</v>
@@ -11867,7 +11869,7 @@
         <v>4307692.307692308</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A6</f>
         <v>Imperium3 Townsville</v>
@@ -11877,7 +11879,7 @@
         <v>10666666.666666666</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>A7</f>
         <v>Study on CAPEX</v>
@@ -11887,12 +11889,12 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>2016</v>
       </c>
@@ -12073,7 +12075,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>281</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>24.444642857142856</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>190</v>
       </c>
@@ -12213,13 +12215,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P57">
         <f>F54/P54</f>
         <v>2.3931623931623931</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>191</v>
       </c>
@@ -12227,7 +12229,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -12236,7 +12238,7 @@
         <v>0.17897091722595079</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>166</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
@@ -12271,7 +12273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>169</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>38.75</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>171</v>
       </c>
@@ -12307,7 +12309,7 @@
         <v>34.545454545454547</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>172</v>
       </c>
@@ -12325,7 +12327,7 @@
         <v>34.545454545454547</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>173</v>
       </c>
@@ -12343,7 +12345,7 @@
         <v>48.4375</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>175</v>
       </c>
@@ -12361,7 +12363,7 @@
         <v>48.4375</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>170</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>62.777777777777779</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>174</v>
       </c>
@@ -12397,7 +12399,7 @@
         <v>70.625</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>168</v>
       </c>
@@ -12415,7 +12417,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M79" s="1" t="s">
         <v>186</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
         <v>182</v>
       </c>
@@ -12446,7 +12448,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>180</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>78.9375</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U83" t="s">
         <v>179</v>
       </c>
@@ -12503,13 +12505,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Z84">
         <f>MEDIAN(X83,X85)</f>
         <v>155.55555555555554</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U85" t="s">
         <v>192</v>
       </c>
@@ -12521,12 +12523,12 @@
         <v>111.11111111111111</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V87">
         <v>26000</v>
@@ -12536,20 +12538,20 @@
         <v>200</v>
       </c>
       <c r="AB87" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U88">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V90">
         <v>2500</v>
@@ -12559,14 +12561,14 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T92" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="T92" t="s">
-        <v>203</v>
       </c>
       <c r="V92">
         <v>1300</v>
@@ -12576,9 +12578,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V93">
         <v>500</v>
@@ -12588,7 +12590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T94" t="s">
         <v>138</v>
       </c>
@@ -12600,9 +12602,9 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V95">
         <v>400</v>
@@ -12612,9 +12614,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V96">
         <v>2000</v>
@@ -12624,9 +12626,9 @@
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="97" spans="20:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V97">
         <v>9000</v>
@@ -12636,7 +12638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="20:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="20:24" x14ac:dyDescent="0.25">
       <c r="X99">
         <f>AVERAGE(X81:X97)</f>
         <v>118.65972222222221</v>
@@ -12644,11 +12646,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J17" r:id="rId1"/>
-    <hyperlink ref="J18" r:id="rId2"/>
-    <hyperlink ref="J19" r:id="rId3"/>
-    <hyperlink ref="J20" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="J17" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="J18" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="J20" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -12658,25 +12660,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B4:R9"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>2015</v>
       </c>
@@ -12741,7 +12744,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>152</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -12805,9 +12808,9 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="H8">
         <v>725</v>
@@ -12819,9 +12822,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H9">
         <v>245</v>
@@ -12849,6 +12852,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011E460AF58AE884FBDAFE5F0BC8A3C26" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="880aabc0518a0ac9df850906ef26756d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ccfbfb3-c687-46c4-b522-0c2663e8cb99" xmlns:ns4="980b4d08-f6c4-45be-a157-5b38f890fa41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d6f96f3db87ad2e8c33f938e7abbbca" ns3:_="" ns4:_="">
     <xsd:import namespace="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
@@ -13071,36 +13089,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A176511-BC92-43A2-933C-AC6330DE2C69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18772E26-F2EA-4DBB-A9C9-CCFDF38A2BA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
-    <ds:schemaRef ds:uri="980b4d08-f6c4-45be-a157-5b38f890fa41"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13123,9 +13115,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18772E26-F2EA-4DBB-A9C9-CCFDF38A2BA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A176511-BC92-43A2-933C-AC6330DE2C69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
+    <ds:schemaRef ds:uri="980b4d08-f6c4-45be-a157-5b38f890fa41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BEVs_LIB_CAPEX_employment stats.xlsx
+++ b/BEVs_LIB_CAPEX_employment stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzou\Box\PhD work\Paper 2 - Mapping materials demand for high penetration of EVs, challenges and opportunities\Python script\LIBs demand\LIBs-demand-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9971F49-EF2B-4021-AA81-3C819A7F9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB6B79-9DFD-4FC8-9705-4B4DC426C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1125" windowWidth="29685" windowHeight="19560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="1035" windowWidth="29685" windowHeight="18480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemistries_scenario" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lorenzo Usai:</t>
         </r>
@@ -294,7 +294,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 65-70</t>
@@ -309,7 +309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lorenzo Usai:</t>
         </r>
@@ -318,7 +318,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 65-70</t>
@@ -1028,7 +1028,7 @@
     <numFmt numFmtId="165" formatCode="0.0\ %"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,19 +1089,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -11158,15 +11145,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:W8"/>
+  <dimension ref="A2:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -11322,53 +11310,50 @@
       <c r="B6" t="s">
         <v>220</v>
       </c>
-      <c r="C6">
-        <v>273056000</v>
-      </c>
-      <c r="D6">
-        <v>69324000</v>
+      <c r="D6" s="53">
+        <v>62464444.899999961</v>
       </c>
       <c r="E6">
-        <v>96248000</v>
+        <v>75805727.400000095</v>
       </c>
       <c r="F6">
-        <v>119992000</v>
+        <v>116012804.69999954</v>
       </c>
       <c r="G6">
-        <v>230656000</v>
+        <v>238827082.00000066</v>
       </c>
       <c r="H6">
-        <v>294468000</v>
+        <v>328676033.39999986</v>
       </c>
       <c r="I6">
-        <v>328176000</v>
+        <v>339442651.60000008</v>
       </c>
       <c r="J6">
-        <v>534876000</v>
+        <v>530120501.2999993</v>
       </c>
       <c r="K6">
-        <v>1420612000</v>
+        <v>1367244290.1000018</v>
       </c>
       <c r="L6">
-        <v>1547812000</v>
+        <v>1782265718.9999948</v>
       </c>
       <c r="M6">
-        <v>3636012000</v>
+        <v>3842845200.9999957</v>
       </c>
       <c r="N6">
-        <v>6388196000</v>
+        <v>7000927684.4000034</v>
       </c>
       <c r="O6">
-        <v>6367420000</v>
+        <v>6471064012.3999825</v>
       </c>
       <c r="P6">
-        <v>8130624000</v>
+        <v>7804709801.2000275</v>
       </c>
       <c r="Q6">
-        <v>8381420000</v>
+        <v>8439861402.7000017</v>
       </c>
       <c r="R6">
-        <v>10792708000</v>
+        <v>10401366950.000019</v>
       </c>
       <c r="W6" t="s">
         <v>211</v>
@@ -11485,6 +11470,10 @@
       <c r="W8" t="s">
         <v>213</v>
       </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="53"/>
+      <c r="R13" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12861,12 +12850,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011E460AF58AE884FBDAFE5F0BC8A3C26" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="880aabc0518a0ac9df850906ef26756d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ccfbfb3-c687-46c4-b522-0c2663e8cb99" xmlns:ns4="980b4d08-f6c4-45be-a157-5b38f890fa41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d6f96f3db87ad2e8c33f938e7abbbca" ns3:_="" ns4:_="">
     <xsd:import namespace="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
@@ -13089,6 +13072,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18772E26-F2EA-4DBB-A9C9-CCFDF38A2BA9}">
   <ds:schemaRefs>
@@ -13098,23 +13087,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5796374D-9F40-46F3-95B3-0698EE8CD9C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="980b4d08-f6c4-45be-a157-5b38f890fa41"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A176511-BC92-43A2-933C-AC6330DE2C69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13131,4 +13103,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5796374D-9F40-46F3-95B3-0698EE8CD9C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6ccfbfb3-c687-46c4-b522-0c2663e8cb99"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="980b4d08-f6c4-45be-a157-5b38f890fa41"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BEVs_LIB_CAPEX_employment stats.xlsx
+++ b/BEVs_LIB_CAPEX_employment stats.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzou\Box\PhD work\Paper 2 - Mapping materials demand for high penetration of EVs, challenges and opportunities\Python script\LIBs demand\LIBs-demand-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzou\Box Sync\PhD work\Paper 2 - Mapping materials demand for high penetration of EVs, challenges and opportunities\Python script\LIBs demand\LIBs-demand-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB6B79-9DFD-4FC8-9705-4B4DC426C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1035" windowWidth="29685" windowHeight="18480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="1040" windowWidth="29690" windowHeight="18480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chemistries_scenario" sheetId="1" r:id="rId1"/>
@@ -20,11 +19,11 @@
     <sheet name="BEV_data" sheetId="2" r:id="rId5"/>
     <sheet name="Employment and automation" sheetId="22" r:id="rId6"/>
     <sheet name="Other_industries_mat demand" sheetId="19" r:id="rId7"/>
-    <sheet name="CAPEX" sheetId="20" r:id="rId8"/>
+    <sheet name="CAPEX" sheetId="20" state="hidden" r:id="rId8"/>
     <sheet name="Production capacity" sheetId="13" r:id="rId9"/>
     <sheet name="LIBs forecast from literature" sheetId="18" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dai, Qiang</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,12 +271,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lorenzo Usai</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="253">
   <si>
     <t>chemistry</t>
   </si>
@@ -878,24 +877,6 @@
     <t>Gigafactory</t>
   </si>
   <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>OPEX (million $/yr)</t>
-  </si>
-  <si>
-    <t>Total OPEX</t>
-  </si>
-  <si>
     <t>Employees</t>
   </si>
   <si>
@@ -917,9 +898,6 @@
     <t>Employment</t>
   </si>
   <si>
-    <t>https://www.pwc.co.uk/economic-services/assets/international-impact-of-automation-feb-2018.pdf</t>
-  </si>
-  <si>
     <t>Faraday</t>
   </si>
   <si>
@@ -1017,12 +995,105 @@
   </si>
   <si>
     <t>Pillot Cristophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>https://ev-database.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources: </t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/ICCT_Pocketbook_2016.pdf</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/ICCT_Pocketbook_2017_Web.pdf</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/ICCT_Pocketbook_2018_Final_20190408.pdf</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/European_vehicle_market_statistics_20192020_20191216.pdf</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/ICCT_EU_Pocketbook_2020_Web_Dec2020.pdf</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/ICCT-EU-Pocketbook-2021-Web-Dec21.pdf</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://www.expomin.cl/mail_mkt_2020/08-julio/Webinar-The-future-Energy-Storage-Cobal-Lithium-Markets.pdf</t>
+  </si>
+  <si>
+    <t>https://fingfx.thomsonreuters.com/gfx/editorcharts/AUTOS-BATTERIES-SOUTHKOREA/0H001QXL09JY/index.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41560-020-00748-8</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/zev-supply-risks-dec2020.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s43246-020-00095-x</t>
+  </si>
+  <si>
+    <t>https://faraday.ac.uk/wp-content/uploads/2020/12/Faraday_Insights_6_Updated_Dec2020.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mckinsey.com/~/media/mckinsey/industries/metals%20and%20mining/our%20insights/lithium%20and%20cobalt%20a%20tale%20of%20two%20commodities/lithium-and-cobalt-a-tale-of-two-commodities.pdf</t>
+  </si>
+  <si>
+    <t>https://www.rolandberger.com/publications/publication_pdf/Roland-Berger_E-Mobility-Index_2018_E_final-2.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fenrg.2020.594857</t>
+  </si>
+  <si>
+    <t>https://fbicrc.com.au/wp-content/uploads/2020/07/Li-ion-Battery-Cathode-Manufacturing-in-Aust-1.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jiec.12072</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.joule.2017.08.019</t>
+  </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/387e4191-acab-4665-9742-073499e3fa9d/Global_EV_Outlook_2018.pdf</t>
+  </si>
+  <si>
+    <t>https://publications.anl.gov/anlpubs/2019/07/153050.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0\ %"/>
@@ -1568,6 +1639,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1593,7 +1665,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="nb-NO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1719,7 +1791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="729258072"/>
@@ -1781,7 +1853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="729257744"/>
@@ -1822,7 +1894,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2775,21 +2847,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2798,7 +2870,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2807,7 +2879,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2990,7 +3062,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3088,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -3042,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3068,7 +3140,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -3093,7 +3165,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -3118,7 +3190,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -3143,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>105</v>
       </c>
@@ -3168,7 +3240,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -3193,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C14" s="3">
         <f>SUM(C6:C12)</f>
         <v>0.99999999999999989</v>
@@ -3379,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3427,7 +3499,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
     </row>
-    <row r="20" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3475,7 +3547,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3523,7 +3595,7 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
     </row>
-    <row r="25" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6"/>
@@ -3567,7 +3639,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
     </row>
-    <row r="26" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="6"/>
@@ -3611,7 +3683,7 @@
       <c r="AU26" s="6"/>
       <c r="AV26" s="6"/>
     </row>
-    <row r="27" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6"/>
@@ -3655,7 +3727,7 @@
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6"/>
@@ -3699,7 +3771,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6"/>
@@ -3743,7 +3815,7 @@
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>
@@ -3787,7 +3859,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6"/>
@@ -3831,7 +3903,7 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3879,7 +3951,7 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -3934,33 +4006,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM94"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="J1" s="54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="O2" s="77">
         <v>2020</v>
       </c>
@@ -3971,7 +4046,7 @@
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>2020</v>
       </c>
@@ -4003,7 +4078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -4082,7 +4157,7 @@
         <v>0.70500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -4157,7 +4232,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4224,7 +4299,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -4256,7 +4331,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -4330,7 +4405,7 @@
         <v>0.89500000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -4371,7 +4446,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="O10" s="1" t="s">
         <v>105</v>
       </c>
@@ -4384,7 +4459,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4499,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="O12" s="1" t="s">
         <v>108</v>
       </c>
@@ -4444,9 +4519,12 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>246</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>5</v>
@@ -4466,11 +4544,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="V14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -4526,7 +4604,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
@@ -4546,7 +4624,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -4578,7 +4656,7 @@
       <c r="W17" s="77"/>
       <c r="X17" s="77"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
@@ -4628,7 +4706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
@@ -4677,7 +4755,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="O20" s="1" t="s">
         <v>101</v>
       </c>
@@ -4715,7 +4793,7 @@
         <v>0.89250000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C21" s="8">
         <f>SUM(C16:C19)</f>
         <v>1</v>
@@ -4770,7 +4848,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="O22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4816,9 +4894,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>245</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>75</v>
@@ -4858,7 +4939,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="O24" s="1" t="s">
         <v>105</v>
@@ -4885,7 +4966,7 @@
       </c>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="C25" s="1">
         <v>2020</v>
@@ -4927,7 +5008,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -4956,7 +5037,7 @@
       </c>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>98</v>
       </c>
@@ -4982,7 +5063,7 @@
       <c r="X27" s="6"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -5004,7 +5085,7 @@
       <c r="Y28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -5019,7 +5100,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>75</v>
       </c>
@@ -5040,7 +5121,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -5054,7 +5135,7 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>88</v>
       </c>
@@ -5081,7 +5162,7 @@
       <c r="Y32" s="77"/>
       <c r="Z32" s="77"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
         <v>127</v>
@@ -5107,7 +5188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -5153,7 +5234,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
         <v>81</v>
       </c>
@@ -5188,7 +5269,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
         <v>88</v>
       </c>
@@ -5223,7 +5304,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -5261,7 +5342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
         <v>83</v>
       </c>
@@ -5282,7 +5363,7 @@
       </c>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
@@ -5321,7 +5402,7 @@
       </c>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5455,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -5418,7 +5499,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -5462,7 +5543,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -5506,7 +5587,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -5537,7 +5618,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>75</v>
       </c>
@@ -5569,13 +5650,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T46" s="8">
         <f>SUM(T34:T43)</f>
         <v>0.78</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -5603,7 +5684,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O48" s="77">
         <v>2050</v>
       </c>
@@ -5619,7 +5700,7 @@
       <c r="Y48" s="77"/>
       <c r="Z48" s="77"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
         <v>127</v>
@@ -5645,9 +5726,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>244</v>
       </c>
       <c r="O50" t="s">
         <v>2</v>
@@ -5682,7 +5766,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O51" t="s">
         <v>81</v>
       </c>
@@ -5716,7 +5800,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
@@ -5768,7 +5852,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -5820,7 +5904,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>6</v>
       </c>
@@ -5856,7 +5940,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>2</v>
       </c>
@@ -5892,7 +5976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>101</v>
       </c>
@@ -5944,7 +6028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>4</v>
       </c>
@@ -5987,7 +6071,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>75</v>
       </c>
@@ -6030,7 +6114,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>105</v>
       </c>
@@ -6073,7 +6157,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O60" t="s">
         <v>93</v>
       </c>
@@ -6085,7 +6169,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
@@ -6123,23 +6207,26 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="U62" s="6"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R64" s="1"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="J65" s="54" t="s">
+        <v>243</v>
+      </c>
       <c r="U65" s="6"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
@@ -6156,7 +6243,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>2</v>
       </c>
@@ -6173,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>81</v>
       </c>
@@ -6190,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>88</v>
       </c>
@@ -6207,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -6224,7 +6311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>83</v>
       </c>
@@ -6241,7 +6328,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>110</v>
       </c>
@@ -6258,7 +6345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>6</v>
       </c>
@@ -6275,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
@@ -6296,12 +6383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J80" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -6348,7 +6438,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>2</v>
       </c>
@@ -6395,7 +6485,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>81</v>
       </c>
@@ -6442,7 +6532,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -6489,7 +6579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -6536,7 +6626,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>89</v>
       </c>
@@ -6583,7 +6673,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>90</v>
       </c>
@@ -6630,7 +6720,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>91</v>
       </c>
@@ -6677,7 +6767,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -6724,7 +6814,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="R91" t="s">
         <v>93</v>
       </c>
@@ -6741,7 +6831,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
@@ -6796,7 +6886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="R94" s="1" t="s">
         <v>7</v>
       </c>
@@ -6826,30 +6916,38 @@
     <mergeCell ref="V32:Z32"/>
     <mergeCell ref="V48:Z48"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J80" r:id="rId1"/>
+    <hyperlink ref="J65" r:id="rId2"/>
+    <hyperlink ref="G50" r:id="rId3"/>
+    <hyperlink ref="G23" r:id="rId4"/>
+    <hyperlink ref="L13" r:id="rId5"/>
+    <hyperlink ref="J1" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7032,7 +7130,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -7083,7 +7181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -7134,7 +7232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -7185,7 +7283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -7236,7 +7334,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -7287,7 +7385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7338,7 +7436,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -7389,12 +7487,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -7402,7 +7500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -7410,7 +7508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7418,7 +7516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7426,7 +7524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -7440,7 +7538,7 @@
       <c r="W18" s="59"/>
       <c r="X18" s="59"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -7454,7 +7552,7 @@
       <c r="W19" s="59"/>
       <c r="X19" s="59"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7468,7 +7566,7 @@
       <c r="W20" s="59"/>
       <c r="X20" s="59"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>76</v>
       </c>
@@ -7482,7 +7580,7 @@
       <c r="W21" s="59"/>
       <c r="X21" s="59"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="S22" s="59"/>
       <c r="T22" s="59"/>
       <c r="U22" s="59"/>
@@ -7490,7 +7588,7 @@
       <c r="W22" s="59"/>
       <c r="X22" s="59"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="S23" s="59"/>
       <c r="T23" s="59"/>
       <c r="U23" s="59"/>
@@ -7498,10 +7596,10 @@
       <c r="W23" s="59"/>
       <c r="X23" s="59"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="61" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -7514,7 +7612,7 @@
       <c r="W24" s="59"/>
       <c r="X24" s="59"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="64"/>
       <c r="C25" s="65"/>
@@ -7528,7 +7626,7 @@
       <c r="W25" s="59"/>
       <c r="X25" s="59"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="64"/>
       <c r="C26" s="65"/>
@@ -7544,7 +7642,7 @@
       <c r="W26" s="59"/>
       <c r="X26" s="59"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="64"/>
       <c r="C27" s="65"/>
@@ -7564,7 +7662,7 @@
       <c r="W27" s="59"/>
       <c r="X27" s="59"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="64"/>
       <c r="C28" s="65"/>
@@ -7584,7 +7682,7 @@
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="67"/>
       <c r="C29" s="68"/>
@@ -7604,12 +7702,12 @@
       <c r="W29" s="59"/>
       <c r="X29" s="59"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -7628,12 +7726,12 @@
       <c r="W30" s="59"/>
       <c r="X30" s="59"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -7652,7 +7750,7 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7661,7 +7759,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:19" x14ac:dyDescent="0.35">
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7670,7 +7768,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:19" x14ac:dyDescent="0.35">
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7679,7 +7777,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:19" x14ac:dyDescent="0.35">
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7693,8 +7791,8 @@
     <mergeCell ref="B24:F29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B30" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B31" r:id="rId1"/>
+    <hyperlink ref="B30" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7702,16 +7800,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C1" s="70" t="s">
         <v>25</v>
       </c>
@@ -7728,7 +7826,7 @@
       <c r="L1" s="70"/>
       <c r="M1" s="70"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7767,7 +7865,7 @@
       </c>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -7809,7 +7907,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
@@ -7851,7 +7949,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -7893,7 +7991,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>75</v>
       </c>
@@ -7935,7 +8033,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -7977,7 +8075,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>101</v>
       </c>
@@ -8015,7 +8113,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
@@ -8056,7 +8154,7 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
@@ -8097,37 +8195,74 @@
         <v>0.37545563909774438</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:M1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
@@ -8140,7 +8275,7 @@
       <c r="F1" s="73"/>
       <c r="G1" s="74"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="23" t="s">
         <v>39</v>
@@ -8179,7 +8314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>42</v>
       </c>
@@ -8229,7 +8364,7 @@
         <v>0.15943298518830254</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>43</v>
       </c>
@@ -8252,7 +8387,7 @@
         <v>1.0541554036552896</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -8267,7 +8402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>44</v>
       </c>
@@ -8307,7 +8442,7 @@
         <v>6.2722277878628665</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>39</v>
@@ -8348,7 +8483,7 @@
         <v>3.839027439007528E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
@@ -8415,7 +8550,7 @@
         <v>0.60762938258084864</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -8481,7 +8616,7 @@
         <v>0.35398034302907622</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>46</v>
       </c>
@@ -8530,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>47</v>
       </c>
@@ -8583,7 +8718,7 @@
         <v>180.80099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>48</v>
       </c>
@@ -8634,7 +8769,7 @@
       </c>
       <c r="P12" s="39"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>49</v>
       </c>
@@ -8684,7 +8819,7 @@
         <v>1.9384431380384937</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>50</v>
       </c>
@@ -8708,7 +8843,7 @@
       </c>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>51</v>
       </c>
@@ -8735,7 +8870,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>52</v>
       </c>
@@ -8776,7 +8911,7 @@
         <v>4.5675924707121236E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>53</v>
       </c>
@@ -8817,7 +8952,7 @@
         <v>0.20402790575227064</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>54</v>
       </c>
@@ -8858,7 +8993,7 @@
         <v>0.75029616954060818</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>55</v>
       </c>
@@ -8886,7 +9021,7 @@
         <v>151.94</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>34</v>
       </c>
@@ -8910,19 +9045,19 @@
       </c>
       <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="I21" s="41"/>
       <c r="S21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="I22" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>45</v>
       </c>
@@ -8972,7 +9107,7 @@
         <v>7.2234694383031831E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>33</v>
       </c>
@@ -9019,7 +9154,7 @@
         <v>0.48871074027188804</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>46</v>
       </c>
@@ -9066,7 +9201,7 @@
         <v>9.1992303846536491E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>47</v>
       </c>
@@ -9112,7 +9247,7 @@
         <v>1.4039610546660844E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>48</v>
       </c>
@@ -9158,7 +9293,7 @@
         <v>0.33302265095188277</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>49</v>
       </c>
@@ -9187,7 +9322,7 @@
         <v>0.47309975851553665</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>50</v>
       </c>
@@ -9220,7 +9355,7 @@
         <v>96.089560000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>62</v>
       </c>
@@ -9249,7 +9384,7 @@
         <v>1.1805179875068721</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>63</v>
       </c>
@@ -9278,7 +9413,7 @@
         <v>0.12160318409641244</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34">
         <f t="shared" ref="B34:G34" si="12">B29*0.05</f>
         <v>5.6536961986425752E-3</v>
@@ -9304,12 +9439,12 @@
         <v>1.0572070877320124E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="45" t="s">
         <v>27</v>
@@ -9342,7 +9477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>1</v>
       </c>
@@ -9377,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>39</v>
       </c>
@@ -9412,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="44" t="s">
         <v>40</v>
       </c>
@@ -9447,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="44" t="s">
         <v>41</v>
       </c>
@@ -9482,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
         <v>67</v>
       </c>
@@ -9517,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
         <v>2</v>
       </c>
@@ -9552,7 +9687,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="44" t="s">
         <v>5</v>
       </c>
@@ -9587,7 +9722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="44" t="s">
         <v>6</v>
       </c>
@@ -9634,16 +9769,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B4:AH39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AH49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -9673,7 +9816,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -9703,7 +9846,7 @@
         <v>89.340304000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -9733,7 +9876,7 @@
         <v>63.520899999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -9763,7 +9906,7 @@
         <v>290.63430399999993</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -9793,7 +9936,7 @@
         <v>142.49196899999998</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -9801,7 +9944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -9831,7 +9974,7 @@
         <v>196.2801</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -9861,7 +10004,7 @@
         <v>356.83210000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -9891,7 +10034,7 @@
         <v>266.44522592249996</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -9921,7 +10064,7 @@
         <v>83.162216126223996</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -9951,7 +10094,7 @@
         <v>137.16368265610001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -9981,9 +10124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
       <c r="C20" s="76" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="76"/>
@@ -9991,7 +10134,7 @@
       <c r="G20" s="76"/>
       <c r="H20" s="76"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
       <c r="E21" s="76"/>
@@ -9999,7 +10142,7 @@
       <c r="G21" s="76"/>
       <c r="H21" s="76"/>
       <c r="AC21" s="75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD21" s="75"/>
       <c r="AE21" s="75"/>
@@ -10007,7 +10150,7 @@
       <c r="AG21" s="75"/>
       <c r="AH21" s="75"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
       <c r="E22" s="76"/>
@@ -10021,7 +10164,7 @@
       <c r="AG22" s="75"/>
       <c r="AH22" s="75"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
       <c r="C23" s="55">
         <v>2015</v>
       </c>
@@ -10059,7 +10202,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -10108,7 +10251,7 @@
         <v>7.7659574468085107E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -10157,7 +10300,7 @@
         <v>0.19255319148936167</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -10206,7 +10349,7 @@
         <v>0.24925531914893617</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -10255,7 +10398,7 @@
         <v>6.3723404255319152E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -10304,7 +10447,7 @@
         <v>2.3829787234042551E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
@@ -10353,7 +10496,7 @@
         <v>3.1914893617021275E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
@@ -10402,9 +10545,9 @@
         <v>0.38829787234042551</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32:H32" si="6">SUM(C24:C30)</f>
@@ -10431,7 +10574,7 @@
         <v>0.99851063829787234</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.35">
       <c r="AB33" s="1" t="s">
         <v>72</v>
       </c>
@@ -10460,7 +10603,28 @@
         <v>0.99851063829787234</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" t="s">
+        <v>236</v>
+      </c>
       <c r="AC34" s="39">
         <f>AC33*100</f>
         <v>95</v>
@@ -10482,7 +10646,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.35">
       <c r="C37" s="1">
         <v>2015</v>
       </c>
@@ -10502,7 +10666,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>162</v>
       </c>
@@ -10525,7 +10689,7 @@
         <v>2008024</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>163</v>
       </c>
@@ -10546,6 +10710,54 @@
       </c>
       <c r="H39">
         <v>969034</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10553,30 +10765,31 @@
     <mergeCell ref="AC21:AH22"/>
     <mergeCell ref="C20:H22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A1" s="54"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -10741,7 +10954,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>120</v>
       </c>
@@ -10906,9 +11119,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -11034,7 +11247,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <v>0.99399999999999999</v>
       </c>
@@ -11077,64 +11290,64 @@
         <v>0.75</v>
       </c>
       <c r="W7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="X7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="Y7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="Z7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AA7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AB7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AC7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AD7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AE7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AF7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AG7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AI7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AJ7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AK7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AL7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AM7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AN7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AO7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AP7" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -11144,25 +11357,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C3" s="52">
         <v>2000</v>
       </c>
@@ -11212,12 +11425,12 @@
         <v>2015</v>
       </c>
       <c r="W3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C4">
         <v>2694000000</v>
@@ -11268,12 +11481,12 @@
         <v>5754000000</v>
       </c>
       <c r="W4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J5">
         <v>24464000</v>
@@ -11303,12 +11516,12 @@
         <v>284780000</v>
       </c>
       <c r="W5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D6" s="53">
         <v>62464444.899999961</v>
@@ -11356,12 +11569,12 @@
         <v>10401366950.000019</v>
       </c>
       <c r="W6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C7" s="53">
         <v>1492108000</v>
@@ -11412,12 +11625,12 @@
         <v>2115600000</v>
       </c>
       <c r="W7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C8" s="53">
         <v>270000</v>
@@ -11468,10 +11681,10 @@
         <v>20900000</v>
       </c>
       <c r="W8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C13" s="53"/>
       <c r="R13" s="53"/>
     </row>
@@ -11482,29 +11695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT99"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC87" sqref="AC87"/>
+    <sheetView zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V99" sqref="V99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>135</v>
       </c>
@@ -11512,7 +11725,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -11526,7 +11739,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -11543,7 +11756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -11557,7 +11770,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -11572,7 +11785,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -11586,7 +11799,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I9" t="s">
         <v>145</v>
       </c>
@@ -11594,72 +11807,72 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C10">
         <f>(D3/C3)/1000000</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C11">
         <f t="shared" ref="C11:C14" si="0">(D4/C4)/1000000</f>
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C12">
         <f t="shared" si="0"/>
         <v>43.07692307692308</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C13">
         <f t="shared" si="0"/>
         <v>106.66666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J17" s="54" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J18" s="54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J19" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J20" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>157</v>
       </c>
@@ -11673,7 +11886,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -11694,7 +11907,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -11715,7 +11928,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -11736,7 +11949,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -11744,7 +11957,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -11765,7 +11978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -11773,7 +11986,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -11781,7 +11994,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -11789,7 +12002,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -11797,7 +12010,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -11814,12 +12027,12 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -11828,7 +12041,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>A3</f>
         <v>Gigafactory 1</v>
@@ -11838,7 +12051,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>A4</f>
         <v>Northvolt</v>
@@ -11848,7 +12061,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>A5</f>
         <v>LG Chem Wroclaw</v>
@@ -11858,7 +12071,7 @@
         <v>4307692.307692308</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>A6</f>
         <v>Imperium3 Townsville</v>
@@ -11868,7 +12081,7 @@
         <v>10666666.666666666</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>A7</f>
         <v>Study on CAPEX</v>
@@ -11878,12 +12091,12 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>2016</v>
       </c>
@@ -12064,7 +12277,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>281</v>
       </c>
@@ -12195,30 +12408,30 @@
         <v>24.444642857142856</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E56">
         <f>H34/1000000</f>
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="P57">
         <f>F54/P54</f>
         <v>2.3931623931623931</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E58">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -12227,7 +12440,7 @@
         <v>0.17897091722595079</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>166</v>
       </c>
@@ -12241,7 +12454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
@@ -12262,7 +12475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>169</v>
       </c>
@@ -12280,7 +12493,7 @@
         <v>38.75</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>171</v>
       </c>
@@ -12298,7 +12511,7 @@
         <v>34.545454545454547</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>172</v>
       </c>
@@ -12316,7 +12529,7 @@
         <v>34.545454545454547</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>173</v>
       </c>
@@ -12334,7 +12547,7 @@
         <v>48.4375</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>175</v>
       </c>
@@ -12352,7 +12565,7 @@
         <v>48.4375</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>170</v>
       </c>
@@ -12370,7 +12583,7 @@
         <v>62.777777777777779</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>174</v>
       </c>
@@ -12388,7 +12601,7 @@
         <v>70.625</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>168</v>
       </c>
@@ -12406,38 +12619,20 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M79" s="1" t="s">
-        <v>186</v>
-      </c>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M79" s="1"/>
       <c r="V79" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="X79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M80" t="s">
-        <v>182</v>
-      </c>
-      <c r="N80" t="s">
         <v>183</v>
       </c>
-      <c r="O80" t="s">
-        <v>184</v>
-      </c>
-      <c r="P80" t="s">
-        <v>185</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="R80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>180</v>
       </c>
@@ -12454,26 +12649,6 @@
         <f>D81/E81</f>
         <v>119.4375</v>
       </c>
-      <c r="M81">
-        <v>161</v>
-      </c>
-      <c r="N81">
-        <v>126</v>
-      </c>
-      <c r="O81">
-        <v>143</v>
-      </c>
-      <c r="P81">
-        <v>2777</v>
-      </c>
-      <c r="R81">
-        <f>SUM(M81:P81)</f>
-        <v>3207</v>
-      </c>
-      <c r="T81">
-        <f>R81/32</f>
-        <v>100.21875</v>
-      </c>
       <c r="V81">
         <v>2526</v>
       </c>
@@ -12482,7 +12657,7 @@
         <v>78.9375</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="U83" t="s">
         <v>179</v>
       </c>
@@ -12494,15 +12669,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="Z84">
         <f>MEDIAN(X83,X85)</f>
         <v>155.55555555555554</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="U85" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="V85">
         <v>2000</v>
@@ -12512,12 +12687,12 @@
         <v>111.11111111111111</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T87" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U87" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="V87">
         <v>26000</v>
@@ -12527,20 +12702,20 @@
         <v>200</v>
       </c>
       <c r="AB87" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T88" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U88">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T90" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V90">
         <v>2500</v>
@@ -12550,14 +12725,14 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T91" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T92" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="V92">
         <v>1300</v>
@@ -12567,9 +12742,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T93" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="V93">
         <v>500</v>
@@ -12579,7 +12754,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T94" t="s">
         <v>138</v>
       </c>
@@ -12591,9 +12766,9 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T95" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="V95">
         <v>400</v>
@@ -12603,9 +12778,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="T96" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="V96">
         <v>2000</v>
@@ -12615,9 +12790,9 @@
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="97" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:24" x14ac:dyDescent="0.35">
       <c r="T97" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="V97">
         <v>9000</v>
@@ -12627,7 +12802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:24" x14ac:dyDescent="0.35">
       <c r="X99">
         <f>AVERAGE(X81:X97)</f>
         <v>118.65972222222221</v>
@@ -12635,11 +12810,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J17" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="J18" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="J19" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J18" r:id="rId2"/>
+    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J20" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -12649,26 +12824,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B4:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:R16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C5" s="1">
         <v>2015</v>
       </c>
@@ -12733,7 +12911,10 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
       <c r="B6" t="s">
         <v>152</v>
       </c>
@@ -12786,7 +12967,10 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -12797,9 +12981,12 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H8">
         <v>725</v>
@@ -12811,9 +12998,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H9">
         <v>245</v>
@@ -12834,9 +13024,47 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
